--- a/UseCase/Descrição UseCases/ListadeCarrosComprados.xlsx
+++ b/UseCase/Descrição UseCases/ListadeCarrosComprados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272EB51-2D42-41DD-A5E1-5C6F013A1C97}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4448F44C-510F-46E4-B8C0-5149D4AADC72}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Actor input</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>4. Sistema mostra lista de Carros comprados</t>
-  </si>
-  <si>
-    <t>5. Indica que quer voltar Menu inicial</t>
-  </si>
-  <si>
-    <t>6. Regressa a 2</t>
   </si>
 </sst>
 </file>
@@ -628,7 +622,7 @@
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -715,17 +709,13 @@
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>

--- a/UseCase/Descrição UseCases/ListadeCarrosComprados.xlsx
+++ b/UseCase/Descrição UseCases/ListadeCarrosComprados.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\UseCase\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4448F44C-510F-46E4-B8C0-5149D4AADC72}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Actor input</t>
   </si>
@@ -70,13 +69,19 @@
     <t>3. Seleciona historico de compras</t>
   </si>
   <si>
-    <t>4. Sistema mostra lista de Carros comprados</t>
+    <t>4. Obtém informação</t>
+  </si>
+  <si>
+    <t>5. Mostra lista de carros comprados</t>
+  </si>
+  <si>
+    <t>Verificou lista de carros comprados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -618,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,7 +670,9 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -710,7 +717,9 @@
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
